--- a/metamodel_py/tests/qs1_files/Data/inputs/UserInputs.xlsx
+++ b/metamodel_py/tests/qs1_files/Data/inputs/UserInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RDR\metamodel_py\tests\qs1_files\Data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RDR\quick_starts\qs1_full_run\Data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E32FFC-DBD6-4BCB-9C15-F45CFD38EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACA7582-C55C-469F-BB13-0A0902EAA68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31665" yWindow="2475" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34665" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserInputs" sheetId="1" r:id="rId1"/>
